--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed1/result_data_KNN.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>7.164</v>
+        <v>8.075999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>6.73</v>
+        <v>5.861</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.422</v>
+        <v>5.395999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.446</v>
+        <v>16.128</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.514</v>
+        <v>5.959999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.608</v>
+        <v>17.312</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.77</v>
+        <v>17.638</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.054</v>
+        <v>16.113</v>
       </c>
     </row>
     <row r="16">
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.378</v>
+        <v>5.621</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>6.953999999999999</v>
+        <v>7.566</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.2</v>
+        <v>16.291</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.550000000000001</v>
+        <v>8.894</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.678</v>
+        <v>16.821</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.4</v>
+        <v>16.634</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.602</v>
+        <v>16.527</v>
       </c>
     </row>
     <row r="24">
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.9</v>
+        <v>6.170999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.502</v>
+        <v>5.306</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.15</v>
+        <v>17.246</v>
       </c>
     </row>
     <row r="30">
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.889999999999999</v>
+        <v>6.112</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.909999999999999</v>
+        <v>6.452999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>16.546</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="35">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.824000000000002</v>
+        <v>9.293000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.428</v>
+        <v>16.539</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.224</v>
+        <v>16.875</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.13</v>
+        <v>16.376</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.472</v>
+        <v>16.774</v>
       </c>
     </row>
     <row r="46">
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.18</v>
+        <v>6.382000000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.74</v>
+        <v>16.719</v>
       </c>
     </row>
     <row r="47">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.662</v>
+        <v>16.548</v>
       </c>
     </row>
     <row r="51">
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.584</v>
+        <v>5.883999999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.31</v>
+        <v>16.881</v>
       </c>
     </row>
     <row r="52">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.606</v>
+        <v>6.042</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.828</v>
+        <v>5.188999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.62</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="58">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.544</v>
+        <v>5.125999999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.802</v>
+        <v>5.261</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.298</v>
+        <v>17.109</v>
       </c>
     </row>
     <row r="66">
@@ -1553,7 +1553,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>4.916</v>
+        <v>5.013</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.648</v>
+        <v>17.384</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>16.85</v>
+        <v>17.571</v>
       </c>
     </row>
     <row r="68">
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.837999999999999</v>
+        <v>6.813000000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.077999999999999</v>
+        <v>9.013000000000002</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.629999999999998</v>
+        <v>5.751</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.082</v>
+        <v>16.957</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.688</v>
+        <v>16.606</v>
       </c>
     </row>
     <row r="85">
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.556</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="88">
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.686</v>
+        <v>5.198</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.286</v>
+        <v>17.815</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.74</v>
+        <v>16.794</v>
       </c>
     </row>
     <row r="98">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.596</v>
+        <v>6.031000000000001</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
